--- a/QuanLyKho/Templates/nhucau.xlsx
+++ b/QuanLyKho/Templates/nhucau.xlsx
@@ -514,6 +514,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -569,12 +575,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,7 +983,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1007,16 +1007,16 @@
     <row r="2" spans="1:14" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1027,16 +1027,16 @@
     <row r="3" spans="1:14" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1047,14 +1047,14 @@
     <row r="4" spans="1:14" s="8" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1135,34 +1135,34 @@
       <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="52" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="52" t="s">
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
     </row>
     <row r="10" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
+      <c r="A10" s="47"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
       <c r="E10" s="29" t="s">
         <v>14</v>
       </c>
@@ -1184,11 +1184,11 @@
       <c r="K10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="52" t="s">
+      <c r="L10" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
     </row>
     <row r="11" spans="1:14" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
@@ -1224,26 +1224,26 @@
     </row>
     <row r="13" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="54" t="s">
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
       <c r="N13" s="33"/>
     </row>
     <row r="14" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1296,10 +1296,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J4"/>
     <mergeCell ref="A9:A10"/>
@@ -1307,6 +1303,10 @@
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="H9:N9"/>
     <mergeCell ref="L10:N10"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35433070866141736" right="0.15748031496062992" top="0.27559055118110237" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.19685039370078741"/>
